--- a/data/trans_bre/P16B15-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B15-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B15-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B15-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,88%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,2%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,1; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 2,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,65; 1,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,1; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 2,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 1,8</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,63%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-1,69; 10,87</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 7,35</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 12,53</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,77; 7,94</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>4,14</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -802,22 +802,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,0; 22,1</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 28,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,89%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,23; 3,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 0,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 2,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 3,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 0,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 2,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B15-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B15-Estudios-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 0,0</t>
+          <t>-2,69; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 2,01</t>
+          <t>-0,66; 1,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 1,76</t>
+          <t>-1,69; 1,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 0,0</t>
+          <t>-2,69; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 2,05</t>
+          <t>-0,66; 1,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,8</t>
+          <t>-1,69; 1,96</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 10,87</t>
+          <t>-2,76; 10,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -732,12 +732,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,35</t>
+          <t>0,78; 8,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 12,53</t>
+          <t>-2,77; 11,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,94</t>
+          <t>0,78; 8,74</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,1</t>
+          <t>0,0; 22,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,37</t>
+          <t>0,0; 28,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 3,34</t>
+          <t>-1,22; 2,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,93</t>
+          <t>-0,5; 1,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 2,9</t>
+          <t>-0,4; 2,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 3,47</t>
+          <t>-1,23; 3,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,94</t>
+          <t>-0,5; 1,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 2,99</t>
+          <t>-0,41; 2,91</t>
         </is>
       </c>
     </row>
